--- a/iselUssSyncV2/OutputWSLorientation/20220524_1258_D50L474W30Q11.0U0.28H50.1G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1258_D50L474W30Q11.0U0.28H50.1G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.02287799702156797</v>
+        <v>0.011438998510783985</v>
       </c>
       <c r="O2" s="0">
-        <v>0.57612691718692366</v>
+        <v>0.28806345859346183</v>
       </c>
       <c r="P2" s="0">
         <v>90.846853333333371</v>
@@ -356,10 +356,10 @@
         <v>0.89120763120000035</v>
       </c>
       <c r="R2" s="0">
-        <v>1.0153252538548942</v>
+        <v>2.0306505077097885</v>
       </c>
       <c r="S2" s="0">
-        <v>0.18242185402502159</v>
+        <v>1.0292425993494012</v>
       </c>
       <c r="T2" s="0">
         <v>0.027036723532058101</v>
@@ -383,16 +383,16 @@
         <v>130000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.87775580073118908</v>
+        <v>0.43887790036559454</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.8854214094203838</v>
+        <v>0.86588684899298318</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.4106790083541934</v>
+        <v>1.2053395041770967</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.2964722452227861</v>
+        <v>0.64823612261139307</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>7.2961004177745767</v>
+        <v>2.0712263531700801</v>
       </c>
     </row>
   </sheetData>
